--- a/biology/Histoire de la zoologie et de la botanique/Yehudah_Leopold_Werner/Yehudah_Leopold_Werner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yehudah_Leopold_Werner/Yehudah_Leopold_Werner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yehudah L. Werner est un herpétologiste israélien d’origine allemande, né 1931 à Munich. Il est professeur émérite à l’université hébraïque de Jérusalem au sein du département de l'évolution, de systématique et d'écologie.
 </t>
@@ -511,26 +523,28 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses parents et lui doivent fuir l’Allemagne national-socialiste et émigrer en Palestine mandataire en 1935. Werner devient un élève de Georg Haas (1905-1981), un herpétologiste et un paléontologue autrichien émigré, professeur à Jérusalem[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses parents et lui doivent fuir l’Allemagne national-socialiste et émigrer en Palestine mandataire en 1935. Werner devient un élève de Georg Haas (1905-1981), un herpétologiste et un paléontologue autrichien émigré, professeur à Jérusalem.
 Werner est l’auteur de plus de 400 publications scientifiques, notamment sur la biologie des geckos et sur la zoogéographie et la protection des reptiles et des amphibiens du Proche-Orient. En outre, il a décrit ou redécrit un nombre de taxons d’amphibiens et de reptiles (seul ou avec d'autres auteurs) :
-Hyla heinzsteinitzi Grach, Plesser &amp; Werner, 2007[2] (cette éspece est un synonyme de Hyla japonica[3])
-Acanthodactylus ahmaddisii Werner, 2004[4] (Lacertidae)
-Acanthodactylus beershebensis Moravec, Baha El Din, Seligmann, Sivan &amp; Werner, 1999[5] (Lacertidae)
-Acanthodactylus pardalis (Lichtenstein, 1823) Moravec, Baha El Din, Seligmann, Sivan &amp; Werner, 1999[5] (Lacertidae)
-Asaccus nasrullahi Werner, 2006[6]
-Cerastes cerastes Werner, Sivan, Kushnir &amp; Motro 1999[7]
-Cerastes cerastes hoofieni Werner &amp; Sivan, 1999[7]
+Hyla heinzsteinitzi Grach, Plesser &amp; Werner, 2007 (cette éspece est un synonyme de Hyla japonica)
+Acanthodactylus ahmaddisii Werner, 2004 (Lacertidae)
+Acanthodactylus beershebensis Moravec, Baha El Din, Seligmann, Sivan &amp; Werner, 1999 (Lacertidae)
+Acanthodactylus pardalis (Lichtenstein, 1823) Moravec, Baha El Din, Seligmann, Sivan &amp; Werner, 1999 (Lacertidae)
+Asaccus nasrullahi Werner, 2006
+Cerastes cerastes Werner, Sivan, Kushnir &amp; Motro 1999
+Cerastes cerastes hoofieni Werner &amp; Sivan, 1999
 Cerastes gasperettii Werner, 1987
-Cerastes gasperettii Werner, Le Verdier, Rosenman &amp; Sivan, 1991[8]
-Cerastes gasperettii mendelssohni Werner &amp; Sivan, 1999[7]
-Eirenis coronella ibrahimi Sivan &amp; Werner, 2003[9] (Colubrinae)
-Eirenis coronelloides Sivan &amp; Werner, 2003[9] (Colubrinae)
-Laudakia stellio salehi Werner, 2006[10]
-Mesalina bahaeldini Segoli, Cohen &amp; Werner, 2002[11] (Lacertidae)
-Micrelaps tchernovi Werner, Babocsay, Carmely &amp; Thuna, 2006[12] (Atractaspididae)
-Ptyodactylus hasselquistii krameri Werner, 1995[13]
+Cerastes gasperettii Werner, Le Verdier, Rosenman &amp; Sivan, 1991
+Cerastes gasperettii mendelssohni Werner &amp; Sivan, 1999
+Eirenis coronella ibrahimi Sivan &amp; Werner, 2003 (Colubrinae)
+Eirenis coronelloides Sivan &amp; Werner, 2003 (Colubrinae)
+Laudakia stellio salehi Werner, 2006
+Mesalina bahaeldini Segoli, Cohen &amp; Werner, 2002 (Lacertidae)
+Micrelaps tchernovi Werner, Babocsay, Carmely &amp; Thuna, 2006 (Atractaspididae)
+Ptyodactylus hasselquistii krameri Werner, 1995
 Attention : les noms de taxons herpétologiques suivis du nom d’auteur « Werner » (d'une période allant des années 1893 à 1938) sont le fait du zoologiste autrichien Franz Werner (1867-1939).
 </t>
         </is>
@@ -560,7 +574,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Adler, K. (1989): Contributions to the History of Herpetology. - Society for the study of amphibians and reptiles: 202 p.  (ISBN 0-916984-19-2)
